--- a/Perfect/testNa.xlsx
+++ b/Perfect/testNa.xlsx
@@ -2,20 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC17\Desktop\Perfect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC08\Desktop\Algorithms\Perfect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8449A3-7699-452C-8C33-0512CBA3FA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB91629-1942-484C-977C-411CED5F5CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDD52D8C-C333-44A9-8035-0EEF19F287F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DDD52D8C-C333-44A9-8035-0EEF19F287F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="18" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>T1</t>
   </si>
@@ -63,6 +67,48 @@
   </si>
   <si>
     <t>Memoria Ram 16 GB</t>
+  </si>
+  <si>
+    <t>Suma de 77</t>
+  </si>
+  <si>
+    <t>Suma de 144600</t>
+  </si>
+  <si>
+    <t>Suma de 147000</t>
+  </si>
+  <si>
+    <t>Suma de 199700</t>
+  </si>
+  <si>
+    <t>Suma de 193100</t>
+  </si>
+  <si>
+    <t>Suma de 161600</t>
+  </si>
+  <si>
+    <t>Suma de 169200</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>144600</t>
+  </si>
+  <si>
+    <t>147000</t>
+  </si>
+  <si>
+    <t>199700</t>
+  </si>
+  <si>
+    <t>193100</t>
+  </si>
+  <si>
+    <t>161600</t>
+  </si>
+  <si>
+    <t>169200</t>
   </si>
 </sst>
 </file>
@@ -137,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -147,6 +193,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,6 +209,2918 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[testNa.xlsx]Hoja1!TablaDinámica9</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de 77</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1084932660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D40A-4616-83BC-E1134A07BFD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de 144600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2249814000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D40A-4616-83BC-E1134A07BFD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de 147000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2239330700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D40A-4616-83BC-E1134A07BFD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de 199700</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2238837400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D40A-4616-83BC-E1134A07BFD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de 193100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2247256000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D40A-4616-83BC-E1134A07BFD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de 161600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2246169800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D40A-4616-83BC-E1134A07BFD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de 169200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2244281580</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D40A-4616-83BC-E1134A07BFD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="764849728"/>
+        <c:axId val="764850208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="764849728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="764850208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="764850208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="764849728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="100"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average nano</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$4:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>169200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>249980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>394020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18827300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>177058580</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2046966340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9945-4108-87D3-66496220638B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:shape val="box"/>
+        <c:axId val="738602336"/>
+        <c:axId val="738602816"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="738602336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738602816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="738602816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738602336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6AE16D1-9AD8-8AC3-AB4E-214C3C542B5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BE12F1-7CB7-9FAA-268F-6014975DE836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PC08" refreshedDate="45525.482331134262" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{EA5B72CF-EFC6-48B5-B781-E2C0AB8C9906}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:H13" sheet="Hoja1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="77" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="994678474"/>
+    </cacheField>
+    <cacheField name="144600" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="148800" maxValue="2054444900"/>
+    </cacheField>
+    <cacheField name="147000" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="151500" maxValue="2039116600"/>
+    </cacheField>
+    <cacheField name="199700" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="174900" maxValue="2041807500"/>
+    </cacheField>
+    <cacheField name="193100" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="171800" maxValue="2047627400"/>
+    </cacheField>
+    <cacheField name="161600" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="155000" maxValue="2051835300"/>
+    </cacheField>
+    <cacheField name="169200" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="188600" maxValue="2046966340"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <n v="6"/>
+    <n v="148800"/>
+    <n v="151500"/>
+    <n v="304400"/>
+    <n v="183300"/>
+    <n v="155000"/>
+    <n v="188600"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="269400"/>
+    <n v="202300"/>
+    <n v="174900"/>
+    <n v="172400"/>
+    <n v="155200"/>
+    <n v="194840"/>
+  </r>
+  <r>
+    <n v="2899"/>
+    <n v="184400"/>
+    <n v="252000"/>
+    <n v="196100"/>
+    <n v="171800"/>
+    <n v="178400"/>
+    <n v="196540"/>
+  </r>
+  <r>
+    <n v="4383"/>
+    <n v="230600"/>
+    <n v="189400"/>
+    <n v="185600"/>
+    <n v="231500"/>
+    <n v="189800"/>
+    <n v="205380"/>
+  </r>
+  <r>
+    <n v="8128"/>
+    <n v="242200"/>
+    <n v="263900"/>
+    <n v="255900"/>
+    <n v="225900"/>
+    <n v="262000"/>
+    <n v="249980"/>
+  </r>
+  <r>
+    <n v="22222"/>
+    <n v="346600"/>
+    <n v="343600"/>
+    <n v="425400"/>
+    <n v="361300"/>
+    <n v="493200"/>
+    <n v="394020"/>
+  </r>
+  <r>
+    <n v="7777777"/>
+    <n v="18799200"/>
+    <n v="19641000"/>
+    <n v="18145100"/>
+    <n v="19165600"/>
+    <n v="18385600"/>
+    <n v="18827300"/>
+  </r>
+  <r>
+    <n v="82438743"/>
+    <n v="175147900"/>
+    <n v="179170400"/>
+    <n v="177342500"/>
+    <n v="179116800"/>
+    <n v="174515300"/>
+    <n v="177058580"/>
+  </r>
+  <r>
+    <n v="994678474"/>
+    <n v="2054444900"/>
+    <n v="2039116600"/>
+    <n v="2041807500"/>
+    <n v="2047627400"/>
+    <n v="2051835300"/>
+    <n v="2046966340"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E000E043-F602-4837-A8EE-95A9EE1592B2}" name="TablaDinámica9" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J5:P6" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="7">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+  </colItems>
+  <dataFields count="7">
+    <dataField name="Suma de 77" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Suma de 144600" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Suma de 147000" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de 199700" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Suma de 193100" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Suma de 161600" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Suma de 169200" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D76ECC31-8D3E-414F-B978-0CBC70151872}" name="Tabla1" displayName="Tabla1" ref="A1:G10" totalsRowShown="0">
+  <autoFilter ref="A1:G10" xr:uid="{D76ECC31-8D3E-414F-B978-0CBC70151872}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{7583E87A-C482-4C67-963A-ACD1A56AE296}" name="77"/>
+    <tableColumn id="2" xr3:uid="{D2692E6D-1819-402F-9B9F-5D9CDAB273B8}" name="144600"/>
+    <tableColumn id="3" xr3:uid="{95BEFA41-6463-4CAB-B049-542B985D24E2}" name="147000"/>
+    <tableColumn id="4" xr3:uid="{874B8834-A768-466D-987D-293879AC05ED}" name="199700"/>
+    <tableColumn id="5" xr3:uid="{DB001E29-1B1A-4A55-965E-E0A2EF5D7E7C}" name="193100"/>
+    <tableColumn id="6" xr3:uid="{C91FE75F-0BA3-4D7A-9D19-E08EEA2F511E}" name="161600"/>
+    <tableColumn id="7" xr3:uid="{C4510EE7-2E6C-4A9E-848B-857AC2CFD42F}" name="169200"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,20 +3419,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9DD79A-17F4-4B47-946B-4FEA871DE1D3}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>148800</v>
+      </c>
+      <c r="C2">
+        <v>151500</v>
+      </c>
+      <c r="D2">
+        <v>304400</v>
+      </c>
+      <c r="E2">
+        <v>183300</v>
+      </c>
+      <c r="F2">
+        <v>155000</v>
+      </c>
+      <c r="G2">
+        <v>188600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>269400</v>
+      </c>
+      <c r="C3">
+        <v>202300</v>
+      </c>
+      <c r="D3">
+        <v>174900</v>
+      </c>
+      <c r="E3">
+        <v>172400</v>
+      </c>
+      <c r="F3">
+        <v>155200</v>
+      </c>
+      <c r="G3">
+        <v>194840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2899</v>
+      </c>
+      <c r="B4">
+        <v>184400</v>
+      </c>
+      <c r="C4">
+        <v>252000</v>
+      </c>
+      <c r="D4">
+        <v>196100</v>
+      </c>
+      <c r="E4">
+        <v>171800</v>
+      </c>
+      <c r="F4">
+        <v>178400</v>
+      </c>
+      <c r="G4">
+        <v>196540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4383</v>
+      </c>
+      <c r="B5">
+        <v>230600</v>
+      </c>
+      <c r="C5">
+        <v>189400</v>
+      </c>
+      <c r="D5">
+        <v>185600</v>
+      </c>
+      <c r="E5">
+        <v>231500</v>
+      </c>
+      <c r="F5">
+        <v>189800</v>
+      </c>
+      <c r="G5">
+        <v>205380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8128</v>
+      </c>
+      <c r="B6">
+        <v>242200</v>
+      </c>
+      <c r="C6">
+        <v>263900</v>
+      </c>
+      <c r="D6">
+        <v>255900</v>
+      </c>
+      <c r="E6">
+        <v>225900</v>
+      </c>
+      <c r="F6">
+        <v>262000</v>
+      </c>
+      <c r="G6">
+        <v>249980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22222</v>
+      </c>
+      <c r="B7">
+        <v>346600</v>
+      </c>
+      <c r="C7">
+        <v>343600</v>
+      </c>
+      <c r="D7">
+        <v>425400</v>
+      </c>
+      <c r="E7">
+        <v>361300</v>
+      </c>
+      <c r="F7">
+        <v>493200</v>
+      </c>
+      <c r="G7">
+        <v>394020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7777777</v>
+      </c>
+      <c r="B8">
+        <v>18799200</v>
+      </c>
+      <c r="C8">
+        <v>19641000</v>
+      </c>
+      <c r="D8">
+        <v>18145100</v>
+      </c>
+      <c r="E8">
+        <v>19165600</v>
+      </c>
+      <c r="F8">
+        <v>18385600</v>
+      </c>
+      <c r="G8">
+        <v>18827300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>82438743</v>
+      </c>
+      <c r="B9">
+        <v>175147900</v>
+      </c>
+      <c r="C9">
+        <v>179170400</v>
+      </c>
+      <c r="D9">
+        <v>177342500</v>
+      </c>
+      <c r="E9">
+        <v>179116800</v>
+      </c>
+      <c r="F9">
+        <v>174515300</v>
+      </c>
+      <c r="G9">
+        <v>177058580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>994678474</v>
+      </c>
+      <c r="B10">
+        <v>2054444900</v>
+      </c>
+      <c r="C10">
+        <v>2039116600</v>
+      </c>
+      <c r="D10">
+        <v>2041807500</v>
+      </c>
+      <c r="E10">
+        <v>2047627400</v>
+      </c>
+      <c r="F10">
+        <v>2051835300</v>
+      </c>
+      <c r="G10">
+        <v>2046966340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1CE3A5-E369-4FC0-BBDB-556A6A31DF80}">
-  <dimension ref="B3:H19"/>
+  <dimension ref="A3:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="16" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -496,7 +3705,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="4">
         <v>77</v>
       </c>
@@ -520,199 +3732,268 @@
         <v>169200</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" s="4">
-        <v>2899</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>184400</v>
+        <v>148800</v>
       </c>
       <c r="D5" s="4">
-        <v>252000</v>
+        <v>151500</v>
       </c>
       <c r="E5" s="4">
-        <v>196100</v>
+        <v>304400</v>
       </c>
       <c r="F5" s="4">
-        <v>171800</v>
+        <v>183300</v>
       </c>
       <c r="G5" s="4">
-        <v>178400</v>
+        <v>155000</v>
       </c>
       <c r="H5" s="4">
         <f>AVERAGE(C5:G5)</f>
+        <v>188600</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4">
+        <v>269400</v>
+      </c>
+      <c r="D6" s="4">
+        <v>202300</v>
+      </c>
+      <c r="E6" s="4">
+        <v>174900</v>
+      </c>
+      <c r="F6" s="4">
+        <v>172400</v>
+      </c>
+      <c r="G6" s="4">
+        <v>155200</v>
+      </c>
+      <c r="H6" s="4">
+        <f>AVERAGE(C6:G6)</f>
+        <v>194840</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1084932660</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2249814000</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2239330700</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2238837400</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2247256000</v>
+      </c>
+      <c r="O6" s="7">
+        <v>2246169800</v>
+      </c>
+      <c r="P6" s="7">
+        <v>2244281580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2899</v>
+      </c>
+      <c r="C7" s="4">
+        <v>184400</v>
+      </c>
+      <c r="D7" s="4">
+        <v>252000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>196100</v>
+      </c>
+      <c r="F7" s="4">
+        <v>171800</v>
+      </c>
+      <c r="G7" s="4">
+        <v>178400</v>
+      </c>
+      <c r="H7" s="4">
+        <f>AVERAGE(C7:G7)</f>
         <v>196540</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4383</v>
+      </c>
+      <c r="C8" s="4">
+        <v>230600</v>
+      </c>
+      <c r="D8" s="4">
+        <v>189400</v>
+      </c>
+      <c r="E8" s="4">
+        <v>185600</v>
+      </c>
+      <c r="F8" s="4">
+        <v>231500</v>
+      </c>
+      <c r="G8" s="4">
+        <v>189800</v>
+      </c>
+      <c r="H8" s="4">
+        <f>AVERAGE(C8:G8)</f>
+        <v>205380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
-        <v>148800</v>
-      </c>
-      <c r="D6" s="4">
-        <v>151500</v>
-      </c>
-      <c r="E6" s="4">
-        <v>304400</v>
-      </c>
-      <c r="F6" s="4">
-        <v>183300</v>
-      </c>
-      <c r="G6" s="4">
-        <v>155000</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" ref="H5:H13" si="0">AVERAGE(C6:G6)</f>
-        <v>188600</v>
+      <c r="B9" s="4">
+        <v>8128</v>
+      </c>
+      <c r="C9" s="4">
+        <v>242200</v>
+      </c>
+      <c r="D9" s="4">
+        <v>263900</v>
+      </c>
+      <c r="E9" s="4">
+        <v>255900</v>
+      </c>
+      <c r="F9" s="4">
+        <v>225900</v>
+      </c>
+      <c r="G9" s="4">
+        <v>262000</v>
+      </c>
+      <c r="H9" s="4">
+        <f>AVERAGE(C9:G9)</f>
+        <v>249980</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>8128</v>
-      </c>
-      <c r="C7" s="4">
-        <v>242200</v>
-      </c>
-      <c r="D7" s="4">
-        <v>263900</v>
-      </c>
-      <c r="E7" s="4">
-        <v>255900</v>
-      </c>
-      <c r="F7" s="4">
-        <v>225900</v>
-      </c>
-      <c r="G7" s="4">
-        <v>262000</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>249980</v>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>22222</v>
+      </c>
+      <c r="C10" s="4">
+        <v>346600</v>
+      </c>
+      <c r="D10" s="4">
+        <v>343600</v>
+      </c>
+      <c r="E10" s="4">
+        <v>425400</v>
+      </c>
+      <c r="F10" s="4">
+        <v>361300</v>
+      </c>
+      <c r="G10" s="4">
+        <v>493200</v>
+      </c>
+      <c r="H10" s="4">
+        <f>AVERAGE(C10:G10)</f>
+        <v>394020</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4">
-        <v>269400</v>
-      </c>
-      <c r="D8" s="4">
-        <v>202300</v>
-      </c>
-      <c r="E8" s="4">
-        <v>174900</v>
-      </c>
-      <c r="F8" s="4">
-        <v>172400</v>
-      </c>
-      <c r="G8" s="4">
-        <v>155200</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>194840</v>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7777777</v>
+      </c>
+      <c r="C11" s="4">
+        <v>18799200</v>
+      </c>
+      <c r="D11" s="4">
+        <v>19641000</v>
+      </c>
+      <c r="E11" s="4">
+        <v>18145100</v>
+      </c>
+      <c r="F11" s="4">
+        <v>19165600</v>
+      </c>
+      <c r="G11" s="4">
+        <v>18385600</v>
+      </c>
+      <c r="H11" s="4">
+        <f>AVERAGE(C11:G11)</f>
+        <v>18827300</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
         <v>82438743</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C12" s="4">
         <v>175147900</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D12" s="4">
         <v>179170400</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E12" s="4">
         <v>177342500</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F12" s="4">
         <v>179116800</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G12" s="4">
         <v>174515300</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" si="0"/>
+      <c r="H12" s="4">
+        <f>AVERAGE(C12:G12)</f>
         <v>177058580</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>4383</v>
-      </c>
-      <c r="C10" s="4">
-        <v>230600</v>
-      </c>
-      <c r="D10" s="4">
-        <v>189400</v>
-      </c>
-      <c r="E10" s="4">
-        <v>185600</v>
-      </c>
-      <c r="F10" s="4">
-        <v>231500</v>
-      </c>
-      <c r="G10" s="4">
-        <v>189800</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>205380</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>22222</v>
-      </c>
-      <c r="C11" s="4">
-        <v>346600</v>
-      </c>
-      <c r="D11" s="4">
-        <v>343600</v>
-      </c>
-      <c r="E11" s="4">
-        <v>425400</v>
-      </c>
-      <c r="F11" s="4">
-        <v>361300</v>
-      </c>
-      <c r="G11" s="4">
-        <v>493200</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>394020</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>7777777</v>
-      </c>
-      <c r="C12" s="4">
-        <v>18799200</v>
-      </c>
-      <c r="D12" s="4">
-        <v>19641000</v>
-      </c>
-      <c r="E12" s="4">
-        <v>18145100</v>
-      </c>
-      <c r="F12" s="4">
-        <v>19165600</v>
-      </c>
-      <c r="G12" s="4">
-        <v>18385600</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>18827300</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
       <c r="B13" s="4">
         <v>994678474</v>
       </c>
@@ -732,7 +4013,7 @@
         <v>2051835300</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C13:G13)</f>
         <v>2046966340</v>
       </c>
     </row>
@@ -754,7 +4035,11 @@
       <c r="C19" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H13">
+    <sortCondition ref="H4:H13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Perfect/testNa.xlsx
+++ b/Perfect/testNa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC08\Desktop\Algorithms\Perfect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB91629-1942-484C-977C-411CED5F5CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DCBC1D-FC89-4CB8-83B4-C1F50AF1F9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DDD52D8C-C333-44A9-8035-0EEF19F287F5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>T1</t>
   </si>
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -193,7 +193,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1644,6 +1643,383 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$40:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7777777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82438743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>994678474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02AC-41EC-B2AC-599B5E82B59A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average nano</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$40:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>189320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200880</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>214559.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>287339.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11634180.199999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86006908.599999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1003389000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02AC-41EC-B2AC-599B5E82B59A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="951157168"/>
+        <c:axId val="951153808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="951157168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951153808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="951153808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951157168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1724,6 +2100,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2776,6 +3192,474 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2850,6 +3734,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>646338</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>183695</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>78921</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850DD48F-E1EF-9748-6E49-6FA4D7D0E4BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2981,7 +3901,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E000E043-F602-4837-A8EE-95A9EE1592B2}" name="TablaDinámica9" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E000E043-F602-4837-A8EE-95A9EE1592B2}" name="TablaDinámica9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J5:P6" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -3668,16 +4588,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1CE3A5-E369-4FC0-BBDB-556A6A31DF80}">
-  <dimension ref="A3:P19"/>
+  <dimension ref="A3:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="16" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -3728,7 +4650,7 @@
         <v>161600</v>
       </c>
       <c r="H4" s="4">
-        <f>AVERAGE(C4:G4)</f>
+        <f t="shared" ref="H4:H13" si="0">AVERAGE(C4:G4)</f>
         <v>169200</v>
       </c>
     </row>
@@ -3755,7 +4677,7 @@
         <v>155000</v>
       </c>
       <c r="H5" s="4">
-        <f>AVERAGE(C5:G5)</f>
+        <f t="shared" si="0"/>
         <v>188600</v>
       </c>
       <c r="J5" t="s">
@@ -3803,28 +4725,28 @@
         <v>155200</v>
       </c>
       <c r="H6" s="4">
-        <f>AVERAGE(C6:G6)</f>
+        <f t="shared" si="0"/>
         <v>194840</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6">
         <v>1084932660</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6">
         <v>2249814000</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6">
         <v>2239330700</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6">
         <v>2238837400</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6">
         <v>2247256000</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6">
         <v>2246169800</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6">
         <v>2244281580</v>
       </c>
     </row>
@@ -3851,7 +4773,7 @@
         <v>178400</v>
       </c>
       <c r="H7" s="4">
-        <f>AVERAGE(C7:G7)</f>
+        <f t="shared" si="0"/>
         <v>196540</v>
       </c>
     </row>
@@ -3878,7 +4800,7 @@
         <v>189800</v>
       </c>
       <c r="H8" s="4">
-        <f>AVERAGE(C8:G8)</f>
+        <f t="shared" si="0"/>
         <v>205380</v>
       </c>
     </row>
@@ -3905,7 +4827,7 @@
         <v>262000</v>
       </c>
       <c r="H9" s="4">
-        <f>AVERAGE(C9:G9)</f>
+        <f t="shared" si="0"/>
         <v>249980</v>
       </c>
     </row>
@@ -3932,7 +4854,7 @@
         <v>493200</v>
       </c>
       <c r="H10" s="4">
-        <f>AVERAGE(C10:G10)</f>
+        <f t="shared" si="0"/>
         <v>394020</v>
       </c>
     </row>
@@ -3959,7 +4881,7 @@
         <v>18385600</v>
       </c>
       <c r="H11" s="4">
-        <f>AVERAGE(C11:G11)</f>
+        <f t="shared" si="0"/>
         <v>18827300</v>
       </c>
     </row>
@@ -3986,7 +4908,7 @@
         <v>174515300</v>
       </c>
       <c r="H12" s="4">
-        <f>AVERAGE(C12:G12)</f>
+        <f t="shared" si="0"/>
         <v>177058580</v>
       </c>
     </row>
@@ -4013,8 +4935,14 @@
         <v>2051835300</v>
       </c>
       <c r="H13" s="4">
-        <f>AVERAGE(C13:G13)</f>
+        <f t="shared" si="0"/>
         <v>2046966340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <f>SUM(H4:H13)</f>
+        <v>2244450780</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -4034,6 +4962,440 @@
       </c>
       <c r="C19" s="3"/>
     </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>77</v>
+      </c>
+      <c r="D40" s="4">
+        <v>174300</v>
+      </c>
+      <c r="E40" s="4">
+        <v>187300</v>
+      </c>
+      <c r="F40" s="4">
+        <v>219200</v>
+      </c>
+      <c r="G40" s="4">
+        <v>199800</v>
+      </c>
+      <c r="H40" s="4">
+        <v>166000</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" ref="I40:I49" si="1">AVERAGE(D40:H40)</f>
+        <v>189320</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4">
+        <v>6</v>
+      </c>
+      <c r="D41" s="4">
+        <v>168300</v>
+      </c>
+      <c r="E41" s="4">
+        <v>168900</v>
+      </c>
+      <c r="F41" s="4">
+        <v>191800</v>
+      </c>
+      <c r="G41" s="4">
+        <v>164200</v>
+      </c>
+      <c r="H41" s="4">
+        <v>311200</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="1"/>
+        <v>200880</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4">
+        <v>28</v>
+      </c>
+      <c r="D42" s="4">
+        <v>168800</v>
+      </c>
+      <c r="E42" s="4">
+        <v>201500</v>
+      </c>
+      <c r="F42" s="4">
+        <v>233700</v>
+      </c>
+      <c r="G42" s="4">
+        <v>188800</v>
+      </c>
+      <c r="H42" s="4">
+        <v>170800</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="1"/>
+        <v>192720</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2899</v>
+      </c>
+      <c r="D43" s="4">
+        <v>180700</v>
+      </c>
+      <c r="E43" s="4">
+        <v>186400</v>
+      </c>
+      <c r="F43" s="4">
+        <v>187700</v>
+      </c>
+      <c r="G43" s="4">
+        <v>189300</v>
+      </c>
+      <c r="H43" s="4">
+        <v>232700</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="1"/>
+        <v>195360</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4383</v>
+      </c>
+      <c r="D44" s="4">
+        <v>232300</v>
+      </c>
+      <c r="E44" s="4">
+        <v>194200</v>
+      </c>
+      <c r="F44" s="4">
+        <v>230000</v>
+      </c>
+      <c r="G44" s="4">
+        <v>222400</v>
+      </c>
+      <c r="H44" s="4">
+        <v>196900</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="1"/>
+        <v>215160</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4">
+        <v>8128</v>
+      </c>
+      <c r="D45" s="4">
+        <v>225700</v>
+      </c>
+      <c r="E45" s="4">
+        <v>210899</v>
+      </c>
+      <c r="F45" s="4">
+        <v>207399</v>
+      </c>
+      <c r="G45" s="4">
+        <v>214700</v>
+      </c>
+      <c r="H45" s="4">
+        <v>214100</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" si="1"/>
+        <v>214559.6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4">
+        <v>22222</v>
+      </c>
+      <c r="D46" s="4">
+        <v>279299</v>
+      </c>
+      <c r="E46" s="4">
+        <v>318401</v>
+      </c>
+      <c r="F46" s="4">
+        <v>274299</v>
+      </c>
+      <c r="G46" s="4">
+        <v>292000</v>
+      </c>
+      <c r="H46" s="4">
+        <v>272700</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="1"/>
+        <v>287339.8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4">
+        <v>7777777</v>
+      </c>
+      <c r="D47" s="4">
+        <v>11244700</v>
+      </c>
+      <c r="E47" s="4">
+        <v>11523001</v>
+      </c>
+      <c r="F47" s="4">
+        <v>11439400</v>
+      </c>
+      <c r="G47" s="4">
+        <v>12064300</v>
+      </c>
+      <c r="H47" s="4">
+        <v>11899500</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="1"/>
+        <v>11634180.199999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4">
+        <v>82438743</v>
+      </c>
+      <c r="D48" s="4">
+        <v>87239500</v>
+      </c>
+      <c r="E48" s="4">
+        <v>86696000</v>
+      </c>
+      <c r="F48" s="4">
+        <v>87304800</v>
+      </c>
+      <c r="G48" s="4">
+        <v>86355500</v>
+      </c>
+      <c r="H48" s="4">
+        <v>82438743</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="1"/>
+        <v>86006908.599999994</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49" s="4">
+        <v>994678474</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1003325000</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1007479200</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1012340400</v>
+      </c>
+      <c r="G49" s="4">
+        <v>996845400</v>
+      </c>
+      <c r="H49" s="4">
+        <v>996955000</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="1"/>
+        <v>1003389000</v>
+      </c>
+      <c r="K49">
+        <f>H15-I51</f>
+        <v>1141925351.8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I51" s="4">
+        <f>SUM(I40:I49)</f>
+        <v>1102525428.2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>77</v>
+      </c>
+      <c r="D54" s="4">
+        <v>208300</v>
+      </c>
+      <c r="E54" s="4">
+        <v>170700</v>
+      </c>
+      <c r="F54" s="4">
+        <v>169300</v>
+      </c>
+      <c r="G54" s="4">
+        <v>180900</v>
+      </c>
+      <c r="H54" s="4">
+        <v>177500</v>
+      </c>
+      <c r="I54" s="4">
+        <f t="shared" ref="I54:I57" si="2">AVERAGE(D54:H54)</f>
+        <v>181340</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="4">
+        <v>6</v>
+      </c>
+      <c r="D55" s="4">
+        <v>196300</v>
+      </c>
+      <c r="E55" s="4">
+        <v>165900</v>
+      </c>
+      <c r="F55" s="4">
+        <v>175800</v>
+      </c>
+      <c r="G55" s="4">
+        <v>179700</v>
+      </c>
+      <c r="H55" s="4">
+        <v>236800</v>
+      </c>
+      <c r="I55" s="4">
+        <f t="shared" si="2"/>
+        <v>190900</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" s="4">
+        <v>28</v>
+      </c>
+      <c r="D56" s="4">
+        <v>167900</v>
+      </c>
+      <c r="E56" s="4">
+        <v>219000</v>
+      </c>
+      <c r="F56" s="4">
+        <v>172300</v>
+      </c>
+      <c r="G56" s="4">
+        <v>167100</v>
+      </c>
+      <c r="H56" s="4">
+        <v>170200</v>
+      </c>
+      <c r="I56" s="4">
+        <f t="shared" si="2"/>
+        <v>179300</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2899</v>
+      </c>
+      <c r="D57" s="4">
+        <v>171200</v>
+      </c>
+      <c r="E57" s="4">
+        <v>171900</v>
+      </c>
+      <c r="F57" s="4">
+        <v>175000</v>
+      </c>
+      <c r="G57" s="4">
+        <v>164500</v>
+      </c>
+      <c r="H57" s="4">
+        <v>218900</v>
+      </c>
+      <c r="I57" s="4">
+        <f t="shared" si="2"/>
+        <v>180300</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H13">
     <sortCondition ref="H4:H13"/>
